--- a/Месиво/Узбеки без семьи.xlsx
+++ b/Месиво/Узбеки без семьи.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,6 +936,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,6 +1461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
